--- a/data/myData.xlsx
+++ b/data/myData.xlsx
@@ -417,7 +417,7 @@
         <v>Инструментов готово</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
